--- a/Process Results/Unified_IBNP_Split_USH.xlsx
+++ b/Process Results/Unified_IBNP_Split_USH.xlsx
@@ -7073,7 +7073,7 @@
         <v>1.362380426228378e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.000215202404802298</v>
+        <v>0.0002152024048022975</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
@@ -7103,20 +7103,20 @@
         <v/>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.02021307248834047</v>
+        <v>0.02021307248834048</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.02336091987889535</v>
+        <v>0.02336091987889534</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.0350492573728274</v>
+        <v>0.03504925737282739</v>
       </c>
       <c r="S7" s="4">
         <f>+T7/T8</f>
         <v/>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.0350492573728274</v>
+        <v>0.03504925737282739</v>
       </c>
       <c r="U7" s="5">
         <f>T7</f>
@@ -7151,14 +7151,14 @@
         <v>1.362380426228378e-05</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.000215202404802298</v>
+        <v>0.0002152024048022975</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4629407274999575</v>
+        <v>0.4629407274999573</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -7182,20 +7182,20 @@
         <v/>
       </c>
       <c r="P8" s="5" t="n">
-        <v>0.6013123002746501</v>
+        <v>0.6013123002746502</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.4127081098014044</v>
+        <v>0.4127081098014043</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.4176652508689181</v>
+        <v>0.4176652508689179</v>
       </c>
       <c r="S8" s="4">
         <f>+T8/T9</f>
         <v/>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0.4176652508689181</v>
+        <v>0.4176652508689179</v>
       </c>
       <c r="U8" s="5">
         <f>T8</f>
@@ -7227,17 +7227,17 @@
         <v>0.01079279310051437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.663389897534627e-05</v>
+        <v>7.663389897534625e-05</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.001210513527012926</v>
+        <v>0.001210513527012923</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.774328699987835</v>
+        <v>0.7743286999878348</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -7261,20 +7261,20 @@
         <v/>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.9620349710866443</v>
+        <v>0.9620349710866445</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.7801994982163905</v>
+        <v>0.7801994982163902</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.64385822754412</v>
+        <v>0.6438582275441196</v>
       </c>
       <c r="S9" s="4">
         <f>+T9/T10</f>
         <v/>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.64385822754412</v>
+        <v>0.6438582275441196</v>
       </c>
       <c r="U9" s="5">
         <f>T9</f>
@@ -7303,20 +7303,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5955498619070715</v>
+        <v>0.5955498619070717</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.004228683671328123</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.04718554463224979</v>
+        <v>0.0471855446322498</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8845153344327147</v>
+        <v>0.8845153344327146</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -7340,20 +7340,20 @@
         <v/>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.9749357419217903</v>
+        <v>0.9749357419217906</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.9442115057485631</v>
+        <v>0.9442115057485628</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.7651726585997838</v>
+        <v>0.7651726585997835</v>
       </c>
       <c r="S10" s="4">
         <f>+T10/T11</f>
         <v/>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.7651726585997838</v>
+        <v>0.7651726585997835</v>
       </c>
       <c r="U10" s="5">
         <f>T10</f>
@@ -7382,7 +7382,7 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8829026702772333</v>
+        <v>0.8829026702772337</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0.1544971221468362</v>
@@ -7395,7 +7395,7 @@
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9274977419598238</v>
+        <v>0.9274977419598237</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -7419,20 +7419,20 @@
         <v/>
       </c>
       <c r="P11" s="5" t="n">
-        <v>0.976111111735018</v>
+        <v>0.9761111117350182</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>0.9481386945235215</v>
+        <v>0.9481386945235213</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>0.8655478167183991</v>
+        <v>0.865547816718399</v>
       </c>
       <c r="S11" s="4">
         <f>+T11/T12</f>
         <v/>
       </c>
       <c r="T11" s="5" t="n">
-        <v>0.8655478167183991</v>
+        <v>0.865547816718399</v>
       </c>
       <c r="U11" s="5">
         <f>T11</f>
@@ -7474,7 +7474,7 @@
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9436478615061408</v>
+        <v>0.9436478615061407</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -7498,20 +7498,20 @@
         <v/>
       </c>
       <c r="P12" s="5" t="n">
-        <v>0.9830824430567354</v>
+        <v>0.9830824430567356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>0.9605644414020938</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>0.8921491903592926</v>
+        <v>0.8921491903592924</v>
       </c>
       <c r="S12" s="4">
         <f>+T12/T13</f>
         <v/>
       </c>
       <c r="T12" s="5" t="n">
-        <v>0.8921491903592926</v>
+        <v>0.8921491903592924</v>
       </c>
       <c r="U12" s="5">
         <f>T12</f>
@@ -7543,7 +7543,7 @@
         <v>0.9066597083393158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.164826829460597</v>
+        <v>0.1648268294605969</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3398344849716193</v>
@@ -7553,7 +7553,7 @@
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9553461068873154</v>
+        <v>0.9553461068873152</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -7583,14 +7583,14 @@
         <v>0.9808843608498021</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>0.9041417098457686</v>
+        <v>0.9041417098457684</v>
       </c>
       <c r="S13" s="4">
         <f>+T13/T14</f>
         <v/>
       </c>
       <c r="T13" s="5" t="n">
-        <v>0.9041417098457686</v>
+        <v>0.9041417098457684</v>
       </c>
       <c r="U13" s="5">
         <f>T13</f>
@@ -7622,7 +7622,7 @@
         <v>0.9473853881304251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2028711025156469</v>
+        <v>0.2028711025156468</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0.3700188232979406</v>
@@ -7632,7 +7632,7 @@
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9700440507040433</v>
+        <v>0.9700440507040431</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -7662,14 +7662,14 @@
         <v>0.9971869886408431</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0.9180246530063385</v>
+        <v>0.9180246530063383</v>
       </c>
       <c r="S14" s="4">
         <f>+T14/T15</f>
         <v/>
       </c>
       <c r="T14" s="5" t="n">
-        <v>0.9180246530063385</v>
+        <v>0.9180246530063383</v>
       </c>
       <c r="U14" s="5">
         <f>T14</f>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>170.2842242503244</v>
+        <v>170.284224250326</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -10441,13 +10441,13 @@
         <v/>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.294411764705885</v>
+        <v>1.294411764705882</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>10.77050670302202</v>
+        <v>10.77050670302204</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -13578,19 +13578,19 @@
         <v/>
       </c>
       <c r="D79" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E79" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F79" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G79" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H79" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I79" s="47" t="n">
         <v>3918.240000000001</v>
@@ -13772,25 +13772,25 @@
         <v>1416.55</v>
       </c>
       <c r="G80" s="47" t="n">
-        <v>1436.909999999999</v>
+        <v>1436.91</v>
       </c>
       <c r="H80" s="47" t="n">
         <v>1436.91</v>
       </c>
       <c r="I80" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="J80" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="K80" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="L80" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="M80" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="N80" s="47" t="n">
         <v/>
@@ -14512,13 +14512,13 @@
         <v>34</v>
       </c>
       <c r="G84" s="47" t="n">
-        <v>44.0100000000001</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="H84" s="47" t="n">
-        <v>44.0100000000001</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="I84" s="47" t="n">
-        <v>474.0100000000001</v>
+        <v>474.01</v>
       </c>
       <c r="J84" s="47" t="n">
         <v/>
@@ -16564,7 +16564,7 @@
         <v/>
       </c>
       <c r="B105" s="4" t="n">
-        <v>6.108641483105752</v>
+        <v>6.108641483105751</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>1</v>
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>3.694361049471347</v>
+        <v>3.694361049471348</v>
       </c>
       <c r="F105" s="4" t="n">
         <v>1.161584665665577</v>
@@ -17014,7 +17014,7 @@
         <v/>
       </c>
       <c r="B111" s="4" t="n">
-        <v>13.01059126463586</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>1.046087148100987</v>
@@ -17023,7 +17023,7 @@
         <v>1.253606245470998</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>1.068411431044694</v>
+        <v>1.068411431044695</v>
       </c>
       <c r="F111" s="4" t="n">
         <v>1.052882526805061</v>
@@ -17032,16 +17032,16 @@
         <v>1.009960739246325</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>1.006834826284632</v>
+        <v>1.006834826284631</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>1.000796588609281</v>
@@ -17329,10 +17329,10 @@
         <v>1.04131249670028</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v/>
@@ -20193,19 +20193,19 @@
         <v/>
       </c>
       <c r="D138" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="E138" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="F138" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="G138" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="H138" s="47" t="n">
-        <v>23.01000000000022</v>
+        <v>23.00999999999999</v>
       </c>
       <c r="I138" s="47" t="n">
         <v>3918.240000000001</v>
@@ -20387,25 +20387,25 @@
         <v>1416.55</v>
       </c>
       <c r="G139" s="47" t="n">
-        <v>1436.909999999999</v>
+        <v>1436.91</v>
       </c>
       <c r="H139" s="47" t="n">
         <v>1436.91</v>
       </c>
       <c r="I139" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="J139" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="K139" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="L139" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="M139" s="47" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="N139" s="47" t="n">
         <v/>
@@ -21127,13 +21127,13 @@
         <v>34</v>
       </c>
       <c r="G143" s="47" t="n">
-        <v>44.0100000000001</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="H143" s="47" t="n">
-        <v>44.0100000000001</v>
+        <v>44.00999999999999</v>
       </c>
       <c r="I143" s="47" t="n">
-        <v>474.0100000000001</v>
+        <v>474.01</v>
       </c>
       <c r="J143" s="47" t="n">
         <v/>
@@ -22874,16 +22874,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="n">
-        <v>0.04152988318266548</v>
+        <v>0.0415298831826655</v>
       </c>
       <c r="C2" s="60" t="n">
-        <v>0.0350492573728274</v>
+        <v>0.03504925737282739</v>
       </c>
       <c r="D2" s="60" t="n">
-        <v>0.02336091987889535</v>
+        <v>0.02336091987889534</v>
       </c>
       <c r="E2" s="60" t="n">
-        <v>0.02021307248834047</v>
+        <v>0.02021307248834048</v>
       </c>
       <c r="F2" s="60" t="n">
         <v>0.008584429701546733</v>
@@ -22898,7 +22898,7 @@
         <v>0.008403466349192479</v>
       </c>
       <c r="J2" s="60" t="n">
-        <v>0.0350492573728274</v>
+        <v>0.03504925737282739</v>
       </c>
       <c r="M2" s="35" t="n">
         <v>1</v>
@@ -22937,19 +22937,19 @@
         <v/>
       </c>
       <c r="B3" s="60" t="n">
-        <v>0.3858882948732181</v>
+        <v>0.3858882948732182</v>
       </c>
       <c r="C3" s="60" t="n">
-        <v>0.4176652508689181</v>
+        <v>0.4176652508689179</v>
       </c>
       <c r="D3" s="60" t="n">
-        <v>0.4127081098014044</v>
+        <v>0.4127081098014043</v>
       </c>
       <c r="E3" s="60" t="n">
-        <v>0.6013123002746501</v>
+        <v>0.6013123002746502</v>
       </c>
       <c r="F3" s="60" t="n">
-        <v>0.1737405040236847</v>
+        <v>0.1737405040236848</v>
       </c>
       <c r="G3" s="60" t="n">
         <v>0.2266425943569388</v>
@@ -22961,7 +22961,7 @@
         <v>0.5450208336091148</v>
       </c>
       <c r="J3" s="60" t="n">
-        <v>0.4176652508689181</v>
+        <v>0.4176652508689179</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -23001,16 +23001,16 @@
         <v/>
       </c>
       <c r="B4" s="60" t="n">
-        <v>0.5599358065461909</v>
+        <v>0.559935806546191</v>
       </c>
       <c r="C4" s="60" t="n">
-        <v>0.64385822754412</v>
+        <v>0.6438582275441196</v>
       </c>
       <c r="D4" s="60" t="n">
-        <v>0.7801994982163905</v>
+        <v>0.7801994982163902</v>
       </c>
       <c r="E4" s="60" t="n">
-        <v>0.9620349710866443</v>
+        <v>0.9620349710866445</v>
       </c>
       <c r="F4" s="60" t="n">
         <v>0.2881667592514854</v>
@@ -23025,7 +23025,7 @@
         <v>0.9573517698145735</v>
       </c>
       <c r="J4" s="60" t="n">
-        <v>0.64385822754412</v>
+        <v>0.6438582275441196</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
@@ -23065,19 +23065,19 @@
         <v/>
       </c>
       <c r="B5" s="60" t="n">
-        <v>0.6457311773438661</v>
+        <v>0.6457311773438662</v>
       </c>
       <c r="C5" s="60" t="n">
-        <v>0.7651726585997838</v>
+        <v>0.7651726585997835</v>
       </c>
       <c r="D5" s="60" t="n">
-        <v>0.9442115057485631</v>
+        <v>0.9442115057485628</v>
       </c>
       <c r="E5" s="60" t="n">
-        <v>0.9749357419217903</v>
+        <v>0.9749357419217906</v>
       </c>
       <c r="F5" s="60" t="n">
-        <v>0.4025347858445484</v>
+        <v>0.4025347858445485</v>
       </c>
       <c r="G5" s="60" t="n">
         <v>0.6526598591924739</v>
@@ -23089,7 +23089,7 @@
         <v>0.9677566356084033</v>
       </c>
       <c r="J5" s="60" t="n">
-        <v>0.7651726585997838</v>
+        <v>0.7651726585997835</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -23129,22 +23129,22 @@
         <v/>
       </c>
       <c r="B6" s="60" t="n">
-        <v>0.8066243685296834</v>
+        <v>0.8066243685296836</v>
       </c>
       <c r="C6" s="60" t="n">
-        <v>0.8655478167183991</v>
+        <v>0.865547816718399</v>
       </c>
       <c r="D6" s="60" t="n">
-        <v>0.9481386945235215</v>
+        <v>0.9481386945235213</v>
       </c>
       <c r="E6" s="60" t="n">
-        <v>0.976111111735018</v>
+        <v>0.9761111117350182</v>
       </c>
       <c r="F6" s="60" t="n">
-        <v>0.7183748405470837</v>
+        <v>0.7183748405470838</v>
       </c>
       <c r="G6" s="60" t="n">
-        <v>0.7630600334703658</v>
+        <v>0.7630600334703659</v>
       </c>
       <c r="H6" s="60" t="n">
         <v>0.9473516910558174</v>
@@ -23153,7 +23153,7 @@
         <v>0.9700555110558586</v>
       </c>
       <c r="J6" s="60" t="n">
-        <v>0.8655478167183991</v>
+        <v>0.865547816718399</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
@@ -23166,7 +23166,7 @@
         <v>1.030733569107422</v>
       </c>
       <c r="P6" s="47" t="n">
-        <v>1.013105410580059</v>
+        <v>1.01310541058006</v>
       </c>
       <c r="Q6" s="47" t="n">
         <v>1.007141944434303</v>
@@ -23193,19 +23193,19 @@
         <v/>
       </c>
       <c r="B7" s="60" t="n">
-        <v>0.9025966207071008</v>
+        <v>0.9025966207071009</v>
       </c>
       <c r="C7" s="60" t="n">
-        <v>0.8921491903592926</v>
+        <v>0.8921491903592924</v>
       </c>
       <c r="D7" s="60" t="n">
         <v>0.9605644414020938</v>
       </c>
       <c r="E7" s="60" t="n">
-        <v>0.9830824430567354</v>
+        <v>0.9830824430567356</v>
       </c>
       <c r="F7" s="60" t="n">
-        <v>0.7978073782828097</v>
+        <v>0.7978073782828099</v>
       </c>
       <c r="G7" s="60" t="n">
         <v>0.7821901132972274</v>
@@ -23217,7 +23217,7 @@
         <v>0.9834139827557196</v>
       </c>
       <c r="J7" s="60" t="n">
-        <v>0.8921491903592926</v>
+        <v>0.8921491903592924</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
@@ -23257,10 +23257,10 @@
         <v/>
       </c>
       <c r="B8" s="60" t="n">
-        <v>0.9193153247652245</v>
+        <v>0.9193153247652246</v>
       </c>
       <c r="C8" s="60" t="n">
-        <v>0.9041417098457686</v>
+        <v>0.9041417098457684</v>
       </c>
       <c r="D8" s="60" t="n">
         <v>0.9808843608498021</v>
@@ -23269,7 +23269,7 @@
         <v>0.9854996431139142</v>
       </c>
       <c r="F8" s="60" t="n">
-        <v>0.8269728089577703</v>
+        <v>0.8269728089577704</v>
       </c>
       <c r="G8" s="60" t="n">
         <v>0.7891763236219944</v>
@@ -23281,7 +23281,7 @@
         <v>0.9850104743500173</v>
       </c>
       <c r="J8" s="60" t="n">
-        <v>0.9041417098457686</v>
+        <v>0.9041417098457684</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -23321,10 +23321,10 @@
         <v/>
       </c>
       <c r="B9" s="60" t="n">
-        <v>0.9313551462361894</v>
+        <v>0.9313551462361895</v>
       </c>
       <c r="C9" s="60" t="n">
-        <v>0.9180246530063385</v>
+        <v>0.9180246530063383</v>
       </c>
       <c r="D9" s="60" t="n">
         <v>0.9971869886408431</v>
@@ -23333,7 +23333,7 @@
         <v>0.9994735309456865</v>
       </c>
       <c r="F9" s="60" t="n">
-        <v>0.8405991072714057</v>
+        <v>0.8405991072714059</v>
       </c>
       <c r="G9" s="60" t="n">
         <v>0.8039434109402718</v>
@@ -23345,14 +23345,14 @@
         <v>0.9997345409507914</v>
       </c>
       <c r="J9" s="60" t="n">
-        <v>0.9180246530063385</v>
+        <v>0.9180246530063383</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="47" t="n">
-        <v>1.07021602403637</v>
+        <v>1.070216024036369</v>
       </c>
       <c r="O9" s="47" t="n">
         <v>1.088418690898814</v>
@@ -23397,7 +23397,7 @@
         <v>0.9994735309456865</v>
       </c>
       <c r="F10" s="60" t="n">
-        <v>0.9972065658372326</v>
+        <v>0.9972065658372328</v>
       </c>
       <c r="G10" s="60" t="n">
         <v>0.9995371100092727</v>
@@ -23461,7 +23461,7 @@
         <v>0.9994735309456865</v>
       </c>
       <c r="F11" s="60" t="n">
-        <v>0.9978588642596555</v>
+        <v>0.9978588642596558</v>
       </c>
       <c r="G11" s="60" t="n">
         <v>0.9995371100092727</v>
@@ -23525,7 +23525,7 @@
         <v>0.9994735309456865</v>
       </c>
       <c r="F12" s="60" t="n">
-        <v>0.9999387277076559</v>
+        <v>0.9999387277076561</v>
       </c>
       <c r="G12" s="60" t="n">
         <v>0.9999336220222217</v>
@@ -24449,7 +24449,7 @@
         <v>0.003117004594208244</v>
       </c>
       <c r="C56" s="60" t="n">
-        <v>0.000215202404802298</v>
+        <v>0.0002152024048022975</v>
       </c>
       <c r="D56" s="60" t="n">
         <v>1.362380426228378e-05</v>
@@ -24458,16 +24458,16 @@
         <v>0.001918718773424777</v>
       </c>
       <c r="F56" s="60" t="n">
-        <v>5.089468700317569e-17</v>
+        <v>5.089468700317526e-17</v>
       </c>
       <c r="G56" s="60" t="n">
-        <v>8.973623614443646e-17</v>
+        <v>8.97362361444357e-17</v>
       </c>
       <c r="H56" s="60" t="n">
-        <v>5.034438924029864e-17</v>
+        <v>5.034438924029823e-17</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>4.391996565548647e-05</v>
+        <v>4.391996565548645e-05</v>
       </c>
       <c r="J56" s="60" t="n">
         <v>0.02483222881628207</v>
@@ -24512,7 +24512,7 @@
         <v>0.003117004594208244</v>
       </c>
       <c r="C57" s="60" t="n">
-        <v>0.000215202404802298</v>
+        <v>0.0002152024048022975</v>
       </c>
       <c r="D57" s="60" t="n">
         <v>1.362380426228378e-05</v>
@@ -24521,19 +24521,19 @@
         <v>0.001918718773424777</v>
       </c>
       <c r="F57" s="60" t="n">
-        <v>5.089468700317569e-17</v>
+        <v>5.089468700317526e-17</v>
       </c>
       <c r="G57" s="60" t="n">
-        <v>8.973623614443646e-17</v>
+        <v>8.97362361444357e-17</v>
       </c>
       <c r="H57" s="60" t="n">
-        <v>5.034438924029864e-17</v>
+        <v>5.034438924029823e-17</v>
       </c>
       <c r="I57" s="60" t="n">
-        <v>4.391996565548647e-05</v>
+        <v>4.391996565548645e-05</v>
       </c>
       <c r="J57" s="60" t="n">
-        <v>0.4629407274999575</v>
+        <v>0.4629407274999573</v>
       </c>
       <c r="M57">
         <f>+M56+1</f>
@@ -24576,28 +24576,28 @@
         <v>0.2041313781778161</v>
       </c>
       <c r="C58" s="60" t="n">
-        <v>0.001210513527012926</v>
+        <v>0.001210513527012923</v>
       </c>
       <c r="D58" s="60" t="n">
-        <v>7.663389897534627e-05</v>
+        <v>7.663389897534625e-05</v>
       </c>
       <c r="E58" s="60" t="n">
         <v>0.01079279310051437</v>
       </c>
       <c r="F58" s="60" t="n">
-        <v>5.330778257588574e-15</v>
+        <v>5.330778257588528e-15</v>
       </c>
       <c r="G58" s="60" t="n">
-        <v>4.217603098788514e-16</v>
+        <v>4.217603098788478e-16</v>
       </c>
       <c r="H58" s="60" t="n">
-        <v>2.366186294294036e-16</v>
+        <v>2.366186294294017e-16</v>
       </c>
       <c r="I58" s="60" t="n">
-        <v>0.0002064238385807864</v>
+        <v>0.0002064238385807863</v>
       </c>
       <c r="J58" s="60" t="n">
-        <v>0.774328699987835</v>
+        <v>0.7743286999878348</v>
       </c>
       <c r="M58">
         <f>+M57+1</f>
@@ -24607,7 +24607,7 @@
         <v>1.115243670971037</v>
       </c>
       <c r="O58" s="47" t="n">
-        <v>38.97977476442188</v>
+        <v>38.97977476442198</v>
       </c>
       <c r="P58" s="47" t="n">
         <v>55.18032786885246</v>
@@ -24628,7 +24628,7 @@
         <v>551.0431034482758</v>
       </c>
       <c r="V58" s="47" t="n">
-        <v>49.78014350070893</v>
+        <v>49.78014350070897</v>
       </c>
     </row>
     <row r="59">
@@ -24640,28 +24640,28 @@
         <v>0.2276562275594048</v>
       </c>
       <c r="C59" s="60" t="n">
-        <v>0.04718554463224979</v>
+        <v>0.0471855446322498</v>
       </c>
       <c r="D59" s="60" t="n">
         <v>0.004228683671328123</v>
       </c>
       <c r="E59" s="60" t="n">
-        <v>0.5955498619070715</v>
+        <v>0.5955498619070717</v>
       </c>
       <c r="F59" s="60" t="n">
-        <v>5.939100359833183e-13</v>
+        <v>5.939100359833132e-13</v>
       </c>
       <c r="G59" s="60" t="n">
-        <v>1.164149351884138e-13</v>
+        <v>1.164149351884128e-13</v>
       </c>
       <c r="H59" s="60" t="n">
-        <v>1.303870638944561e-13</v>
+        <v>1.30387063894455e-13</v>
       </c>
       <c r="I59" s="60" t="n">
-        <v>0.1137484326372625</v>
+        <v>0.1137484326372624</v>
       </c>
       <c r="J59" s="60" t="n">
-        <v>0.8845153344327147</v>
+        <v>0.8845153344327146</v>
       </c>
       <c r="M59">
         <f>+M58+1</f>
@@ -24671,7 +24671,7 @@
         <v>1.412240247705022</v>
       </c>
       <c r="O59" s="47" t="n">
-        <v>5.84305525243171</v>
+        <v>5.843055252431709</v>
       </c>
       <c r="P59" s="47" t="n">
         <v>36.53551179398399</v>
@@ -24701,7 +24701,7 @@
         <v/>
       </c>
       <c r="B60" s="60" t="n">
-        <v>0.3215052872000846</v>
+        <v>0.3215052872000847</v>
       </c>
       <c r="C60" s="60" t="n">
         <v>0.275707744402318</v>
@@ -24710,22 +24710,22 @@
         <v>0.1544971221468362</v>
       </c>
       <c r="E60" s="60" t="n">
-        <v>0.8829026702772333</v>
+        <v>0.8829026702772337</v>
       </c>
       <c r="F60" s="60" t="n">
-        <v>1.078504518473598e-10</v>
+        <v>1.078504518473589e-10</v>
       </c>
       <c r="G60" s="60" t="n">
-        <v>3.878857996813979e-11</v>
+        <v>3.878857996813946e-11</v>
       </c>
       <c r="H60" s="60" t="n">
-        <v>1.156333230615251e-10</v>
+        <v>1.156333230615242e-10</v>
       </c>
       <c r="I60" s="60" t="n">
-        <v>0.20747533559969</v>
+        <v>0.2074753355996899</v>
       </c>
       <c r="J60" s="60" t="n">
-        <v>0.9274977419598238</v>
+        <v>0.9274977419598237</v>
       </c>
       <c r="M60">
         <f>+M59+1</f>
@@ -24744,16 +24744,16 @@
         <v>1.026907878820462</v>
       </c>
       <c r="R60" s="47" t="n">
-        <v>1.16067271068104</v>
+        <v>1.160672710681039</v>
       </c>
       <c r="S60" s="47" t="n">
-        <v>1.033731922646299</v>
+        <v>1.033731922646298</v>
       </c>
       <c r="T60" s="47" t="n">
-        <v>1.080736569525633</v>
+        <v>1.080736569525632</v>
       </c>
       <c r="U60" s="47" t="n">
-        <v>1.098137254901962</v>
+        <v>1.098137254901961</v>
       </c>
       <c r="V60" s="47" t="n">
         <v>1.027224518485274</v>
@@ -24777,19 +24777,19 @@
         <v>0.9066597083393155</v>
       </c>
       <c r="F61" s="60" t="n">
-        <v>1.2517907629385e-10</v>
+        <v>1.251790762938489e-10</v>
       </c>
       <c r="G61" s="60" t="n">
-        <v>4.009699334718485e-11</v>
+        <v>4.009699334718448e-11</v>
       </c>
       <c r="H61" s="60" t="n">
-        <v>1.24969160888362e-10</v>
+        <v>1.249691608883608e-10</v>
       </c>
       <c r="I61" s="60" t="n">
-        <v>0.2278363954953069</v>
+        <v>0.2278363954953064</v>
       </c>
       <c r="J61" s="60" t="n">
-        <v>0.9436478615061408</v>
+        <v>0.9436478615061407</v>
       </c>
       <c r="M61">
         <f>+M60+1</f>
@@ -24829,31 +24829,31 @@
         <v/>
       </c>
       <c r="B62" s="60" t="n">
-        <v>0.3515688703781844</v>
+        <v>0.3515688703781845</v>
       </c>
       <c r="C62" s="60" t="n">
         <v>0.3398344849716193</v>
       </c>
       <c r="D62" s="60" t="n">
-        <v>0.164826829460597</v>
+        <v>0.1648268294605969</v>
       </c>
       <c r="E62" s="60" t="n">
         <v>0.9066597083393158</v>
       </c>
       <c r="F62" s="60" t="n">
-        <v>7.611384933759449e-09</v>
+        <v>7.611384933759383e-09</v>
       </c>
       <c r="G62" s="60" t="n">
-        <v>3.43720618612929e-09</v>
+        <v>3.437206186129259e-09</v>
       </c>
       <c r="H62" s="60" t="n">
-        <v>1.267188400121526e-10</v>
+        <v>1.267188400121514e-10</v>
       </c>
       <c r="I62" s="60" t="n">
-        <v>0.2278363954953069</v>
+        <v>0.2278363954953065</v>
       </c>
       <c r="J62" s="60" t="n">
-        <v>0.9553461068873154</v>
+        <v>0.9553461068873152</v>
       </c>
       <c r="M62">
         <f>+M61+1</f>
@@ -24872,16 +24872,16 @@
         <v>1.04491837391308</v>
       </c>
       <c r="R62" s="47" t="n">
-        <v>12.19158208436838</v>
+        <v>12.19158208436849</v>
       </c>
       <c r="S62" s="47" t="n">
-        <v>15.92194636689431</v>
+        <v>15.92194636689445</v>
       </c>
       <c r="T62" s="47" t="n">
-        <v>30.84389273378861</v>
+        <v>30.84389273378889</v>
       </c>
       <c r="U62" s="47" t="n">
-        <v>4.256835567674006</v>
+        <v>4.256835567674014</v>
       </c>
       <c r="V62" s="47" t="n">
         <v>1.121517557752395</v>
@@ -24899,7 +24899,7 @@
         <v>0.3700188232979406</v>
       </c>
       <c r="D63" s="60" t="n">
-        <v>0.2028711025156469</v>
+        <v>0.2028711025156468</v>
       </c>
       <c r="E63" s="60" t="n">
         <v>0.9473853881304251</v>
@@ -24917,7 +24917,7 @@
         <v>0.9698620719550641</v>
       </c>
       <c r="J63" s="60" t="n">
-        <v>0.9700440507040433</v>
+        <v>0.9700440507040431</v>
       </c>
       <c r="M63">
         <f>+M62+1</f>
@@ -26551,7 +26551,7 @@
         <v/>
       </c>
       <c r="M12" s="12" t="n">
-        <v>22582.26416666667</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="N12" s="12">
         <f>100*$K12/$M12</f>
@@ -26807,7 +26807,7 @@
         <v/>
       </c>
       <c r="M16" s="12" t="n">
-        <v>21386.11833333333</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="N16" s="12">
         <f>100*$K16/$M16</f>
@@ -27027,7 +27027,7 @@
         <v/>
       </c>
       <c r="B20" s="12" t="n">
-        <v>1436.91</v>
+        <v>1436.910000000001</v>
       </c>
       <c r="C20" s="12">
         <f>'Completion Factors'!J18</f>
@@ -27038,7 +27038,7 @@
         <v/>
       </c>
       <c r="E20" s="12" t="n">
-        <v>4020.329999999999</v>
+        <v>4020.33</v>
       </c>
       <c r="F20" s="12">
         <f>'Completion Factors'!U18</f>
@@ -27295,7 +27295,7 @@
         <v/>
       </c>
       <c r="B24" s="12" t="n">
-        <v>474.0100000000001</v>
+        <v>474.01</v>
       </c>
       <c r="C24" s="12">
         <f>'Completion Factors'!J14</f>
@@ -27306,7 +27306,7 @@
         <v/>
       </c>
       <c r="E24" s="12" t="n">
-        <v>788.9399999999999</v>
+        <v>788.9400000000001</v>
       </c>
       <c r="F24" s="12">
         <f>'Completion Factors'!U14</f>
